--- a/new.xlsx
+++ b/new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svarovsky\WebstormProjects\untitled\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF20BDD-AB51-4E11-B41A-32BBA3297443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3E5CD9-E515-41A0-9149-2026EC7600FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5850" yWindow="4380" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,17 +337,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1">
         <v>2</v>
@@ -359,6 +359,19 @@
       </c>
       <c r="B2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
